--- a/Crosswalk_2012/Crosswalk_DDTs.xlsx
+++ b/Crosswalk_2012/Crosswalk_DDTs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,9 +138,6 @@
     <t>OR_SR_1705011007_05_102744</t>
   </si>
   <si>
-    <t>OR_WS_170900120201_02_104554</t>
-  </si>
-  <si>
     <t>OR_SR_1709000905_02_104088</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>OR_WS_170701050402_02_101991</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1065,10 +1065,10 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1123,10 +1123,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -1141,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1181,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
         <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1208,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1254,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,10 +1311,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
         <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>62</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -1332,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -1396,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1465,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1539,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1559,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1579,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1596,10 +1596,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1645,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1654,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1677,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1711,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="3"/>
     </row>
@@ -1726,10 +1726,10 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -1738,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -1784,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1795,10 +1795,10 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -1807,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -1830,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -1876,7 +1876,7 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -1899,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1913,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -1922,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -1956,10 +1956,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F64" s="3"/>
     </row>
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -1994,10 +1994,10 @@
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="3"/>
     </row>
@@ -2009,10 +2009,10 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2032,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2052,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2092,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F71" s="3"/>
     </row>
@@ -2110,7 +2110,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -2150,7 +2150,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2170,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2190,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2210,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -2230,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -2250,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2290,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -2310,7 +2310,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -2330,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -2347,10 +2347,10 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2367,10 +2367,10 @@
         <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2387,10 +2387,10 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -2407,10 +2407,10 @@
         <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -2427,10 +2427,10 @@
         <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -2447,10 +2447,10 @@
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -2470,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -2480,11 +2480,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H90">
-    <sortState ref="A2:H90">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:H90">
     <sortCondition ref="A2:A90"/>
     <sortCondition ref="B2:B90"/>
@@ -2512,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,7 +2527,7 @@
         <v>440223117010301</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,7 +2541,7 @@
         <v>13184000</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2555,7 @@
         <v>14202000</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,7 +2569,7 @@
         <v>14211550</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2583,7 @@
         <v>452743122365400</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,10 +2606,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,10 +2620,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,10 +2634,10 @@
         <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,7 +2651,7 @@
         <v>14211550</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2670,7 +2665,7 @@
         <v>452743122365400</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2696,7 +2691,7 @@
         <v>14211720</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,10 +2702,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,10 +2716,10 @@
         <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,10 +2730,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,10 +2744,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,10 +2758,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,10 +2772,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,10 +2786,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,10 +2800,10 @@
         <v>49</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,10 +2814,10 @@
         <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,10 +2828,10 @@
         <v>48</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,10 +2842,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,10 +2856,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,10 +2870,10 @@
         <v>48</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,10 +2884,10 @@
         <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2903,10 +2898,10 @@
         <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,10 +2912,10 @@
         <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,10 +2926,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,10 +2940,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,10 +2954,10 @@
         <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2973,10 +2968,10 @@
         <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,7 +2985,7 @@
         <v>14201300</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,7 +2999,7 @@
         <v>14201300</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,10 +3010,10 @@
         <v>49</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
